--- a/SPES01-2024-09_Relatorio.xlsx
+++ b/SPES01-2024-09_Relatorio.xlsx
@@ -272,16 +272,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -297,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -305,30 +297,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,55 +597,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -691,7 +665,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -700,18 +674,18 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -723,35 +697,35 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -771,7 +745,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -791,7 +765,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -811,7 +785,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -823,15 +797,15 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -843,15 +817,15 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -860,18 +834,18 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -891,7 +865,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -911,47 +885,47 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -971,7 +945,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -991,7 +965,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1003,35 +977,35 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1040,18 +1014,18 @@
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1060,18 +1034,18 @@
         <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1091,7 +1065,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -1103,15 +1077,15 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -1131,7 +1105,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1143,15 +1117,15 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -1160,18 +1134,18 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
         <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1191,7 +1165,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1211,47 +1185,47 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -1271,7 +1245,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1280,18 +1254,18 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -1303,35 +1277,35 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -1340,18 +1314,18 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -1360,18 +1334,18 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
@@ -1391,7 +1365,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
@@ -1411,13 +1385,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -1426,12 +1400,12 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -1440,18 +1414,18 @@
         <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -1471,7 +1445,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -1491,47 +1465,47 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -1551,7 +1525,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -1563,15 +1537,15 @@
         <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -1591,7 +1565,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -1611,7 +1585,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -1631,7 +1605,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -1649,49 +1623,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" t="s">
-        <v>77</v>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
@@ -1711,7 +1685,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -1731,7 +1705,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -1751,7 +1725,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>30</v>
@@ -1769,49 +1743,49 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>78</v>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
         <v>31</v>
@@ -1831,7 +1805,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>31</v>
@@ -1851,7 +1825,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>
@@ -1871,7 +1845,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>31</v>
@@ -1891,7 +1865,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
@@ -1911,7 +1885,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
@@ -1931,47 +1905,47 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
@@ -1991,7 +1965,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
@@ -2011,7 +1985,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -2031,7 +2005,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>32</v>
@@ -2051,7 +2025,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
         <v>32</v>
@@ -2071,7 +2045,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>32</v>
@@ -2091,47 +2065,47 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>29</v>
@@ -2151,7 +2125,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
@@ -2163,15 +2137,15 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>29</v>
@@ -2191,7 +2165,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>29</v>
@@ -2211,7 +2185,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>29</v>
@@ -2231,47 +2205,47 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>29</v>
@@ -2291,7 +2265,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
@@ -2303,15 +2277,15 @@
         <v>30</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>29</v>
@@ -2331,7 +2305,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
@@ -2343,29 +2317,9 @@
         <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" t="s">
         <v>83</v>
       </c>
     </row>
